--- a/Test/TestExcelFiles/VerticallySetupListProperties.xlsx
+++ b/Test/TestExcelFiles/VerticallySetupListProperties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cburge\Documents\repos\customer-tests-excel\Test\TestExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{70BB3288-8744-42CC-AB2D-C853D4C8B9AA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CD8CBA-F100-4591-8FE6-5FB7F5547AD4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{93574C7F-CD34-4A26-A791-2CAAC18DAAC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93574C7F-CD34-4A26-A791-2CAAC18DAAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="VerticallySetupListProperties" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>When</t>
   </si>
   <si>
-    <t>Assert</t>
-  </si>
-  <si>
     <t>=</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>ThingToSetup</t>
+  </si>
+  <si>
+    <t>Then</t>
   </si>
 </sst>
 </file>
@@ -120,7 +120,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="247">
+  <dxfs count="494">
     <dxf>
       <fill>
         <patternFill>
@@ -1942,6 +1942,1963 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2391,7 +4348,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2412,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2420,7 +4377,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2430,20 +4387,20 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="4">
         <v>1.1000000000000001</v>
@@ -2451,7 +4408,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="4">
         <v>1.2</v>
@@ -2459,12 +4416,12 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="4">
         <v>2.1</v>
@@ -2472,7 +4429,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="4">
         <v>2.2000000000000002</v>
@@ -2483,23 +4440,23 @@
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
@@ -2507,895 +4464,895 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A18:XFD1048576 G1:XFD17">
-    <cfRule type="cellIs" dxfId="246" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="264" operator="equal">
       <formula>"Assert"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="265" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="266" operator="equal">
       <formula>"Given a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="267" operator="equal">
       <formula>"Specification"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="242" priority="268" operator="beginsWith" text="With Properties">
+    <cfRule type="beginsWith" dxfId="489" priority="268" operator="beginsWith" text="With Properties">
       <formula>LEFT(A1,LEN("With Properties"))="With Properties"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="241" priority="269" operator="endsWith" text=" table of">
+    <cfRule type="endsWith" dxfId="488" priority="269" operator="endsWith" text=" table of">
       <formula>RIGHT(A1,LEN(" table of"))=" table of"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="240" priority="270" operator="endsWith" text=" of">
+    <cfRule type="endsWith" dxfId="487" priority="270" operator="endsWith" text=" of">
       <formula>RIGHT(A1,LEN(" of"))=" of"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="239" priority="271">
+    <cfRule type="expression" dxfId="486" priority="271">
       <formula>AND((RIGHT(A1048576, 3) = " of"), A2 = "With Properties")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="272">
+    <cfRule type="expression" dxfId="485" priority="272">
       <formula>AND(RIGHT(XFD1, 3) = " of", A2 = "With Properties")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:XFD1048576 G1:XFD17">
-    <cfRule type="notContainsBlanks" dxfId="237" priority="273">
+    <cfRule type="notContainsBlanks" dxfId="484" priority="273">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:XFD1048576 G1:XFD17">
-    <cfRule type="cellIs" dxfId="236" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="262" operator="equal">
       <formula>"PercentagePrecision"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="263" operator="equal">
       <formula>"="</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:XFD1048576 G1:XFD17">
-    <cfRule type="cellIs" dxfId="234" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="261" operator="equal">
       <formula>"StringFormat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:C10 C11 E8:F8 A1:F7 A12:F17">
-    <cfRule type="cellIs" dxfId="233" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="251" operator="equal">
+      <formula>"Then"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="480" priority="252" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="479" priority="253" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="478" priority="254" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="477" priority="255" operator="beginsWith" text="With Properties">
+      <formula>LEFT(A1,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="476" priority="256" operator="endsWith" text=" table of">
+      <formula>RIGHT(A1,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="475" priority="257" operator="endsWith" text=" of">
+      <formula>RIGHT(A1,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="474" priority="258">
+      <formula>AND((RIGHT(A1048576, 3) = " of"), A2 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="473" priority="259">
+      <formula>AND(RIGHT(XFD1, 3) = " of", A2 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:C10 C11 E8:F8 A1:F7 A12:F17">
+    <cfRule type="notContainsBlanks" dxfId="472" priority="260">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:C10 C11 E8:F8 A1:F7 A12:F17">
+    <cfRule type="cellIs" dxfId="471" priority="249" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="470" priority="250" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:C10 C11 E8:F8 A1:F7 A12:F17">
+    <cfRule type="cellIs" dxfId="469" priority="248" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:B13">
+    <cfRule type="cellIs" dxfId="468" priority="225" operator="equal">
       <formula>"Assert"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="226" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="227" operator="equal">
       <formula>"Given a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="228" operator="equal">
       <formula>"Specification"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="229" priority="255" operator="beginsWith" text="With Properties">
-      <formula>LEFT(A1,LEN("With Properties"))="With Properties"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="228" priority="256" operator="endsWith" text=" table of">
-      <formula>RIGHT(A1,LEN(" table of"))=" table of"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="227" priority="257" operator="endsWith" text=" of">
-      <formula>RIGHT(A1,LEN(" of"))=" of"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="226" priority="258">
-      <formula>AND((RIGHT(A1048576, 3) = " of"), A2 = "With Properties")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="225" priority="259">
-      <formula>AND(RIGHT(XFD1, 3) = " of", A2 = "With Properties")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:C10 C11 E8:F8 A1:F7 A12:F17">
-    <cfRule type="notContainsBlanks" dxfId="224" priority="260">
-      <formula>LEN(TRIM(A1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:C10 C11 E8:F8 A1:F7 A12:F17">
-    <cfRule type="cellIs" dxfId="223" priority="249" operator="equal">
+    <cfRule type="beginsWith" dxfId="464" priority="229" operator="beginsWith" text="With Properties">
+      <formula>LEFT(A9,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="463" priority="230" operator="endsWith" text=" table of">
+      <formula>RIGHT(A9,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="462" priority="231" operator="endsWith" text=" of">
+      <formula>RIGHT(A9,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="461" priority="232">
+      <formula>AND((RIGHT(A8, 3) = " of"), A10 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="460" priority="233">
+      <formula>AND(RIGHT(XFD9, 3) = " of", A10 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:B13">
+    <cfRule type="notContainsBlanks" dxfId="459" priority="234">
+      <formula>LEN(TRIM(A9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:B13">
+    <cfRule type="cellIs" dxfId="458" priority="223" operator="equal">
       <formula>"PercentagePrecision"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="224" operator="equal">
       <formula>"="</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:C10 C11 E8:F8 A1:F7 A12:F17">
-    <cfRule type="cellIs" dxfId="221" priority="248" operator="equal">
+  <conditionalFormatting sqref="A9:B13">
+    <cfRule type="cellIs" dxfId="456" priority="222" operator="equal">
       <formula>"StringFormat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:B13">
-    <cfRule type="cellIs" dxfId="220" priority="225" operator="equal">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="455" priority="199" operator="equal">
       <formula>"Assert"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="200" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="201" operator="equal">
       <formula>"Given a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="202" operator="equal">
       <formula>"Specification"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="216" priority="229" operator="beginsWith" text="With Properties">
-      <formula>LEFT(A9,LEN("With Properties"))="With Properties"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="215" priority="230" operator="endsWith" text=" table of">
-      <formula>RIGHT(A9,LEN(" table of"))=" table of"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="214" priority="231" operator="endsWith" text=" of">
-      <formula>RIGHT(A9,LEN(" of"))=" of"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="213" priority="232">
-      <formula>AND((RIGHT(A8, 3) = " of"), A10 = "With Properties")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="212" priority="233">
-      <formula>AND(RIGHT(XFD9, 3) = " of", A10 = "With Properties")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:B13">
-    <cfRule type="notContainsBlanks" dxfId="211" priority="234">
-      <formula>LEN(TRIM(A9))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:B13">
-    <cfRule type="cellIs" dxfId="210" priority="223" operator="equal">
+    <cfRule type="beginsWith" dxfId="451" priority="203" operator="beginsWith" text="With Properties">
+      <formula>LEFT(D8,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="450" priority="204" operator="endsWith" text=" table of">
+      <formula>RIGHT(D8,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="449" priority="205" operator="endsWith" text=" of">
+      <formula>RIGHT(D8,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="448" priority="206">
+      <formula>AND((RIGHT(D7, 3) = " of"), D9 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="447" priority="207">
+      <formula>AND(RIGHT(C8, 3) = " of", D9 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="notContainsBlanks" dxfId="446" priority="208">
+      <formula>LEN(TRIM(D8))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="445" priority="197" operator="equal">
       <formula>"PercentagePrecision"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="198" operator="equal">
       <formula>"="</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:B13">
-    <cfRule type="cellIs" dxfId="208" priority="222" operator="equal">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="443" priority="196" operator="equal">
       <formula>"StringFormat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="207" priority="199" operator="equal">
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="442" priority="186" operator="equal">
       <formula>"Assert"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="187" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="188" operator="equal">
       <formula>"Given a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="189" operator="equal">
       <formula>"Specification"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="203" priority="203" operator="beginsWith" text="With Properties">
-      <formula>LEFT(D8,LEN("With Properties"))="With Properties"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="202" priority="204" operator="endsWith" text=" table of">
-      <formula>RIGHT(D8,LEN(" table of"))=" table of"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="201" priority="205" operator="endsWith" text=" of">
-      <formula>RIGHT(D8,LEN(" of"))=" of"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="200" priority="206">
-      <formula>AND((RIGHT(D7, 3) = " of"), D9 = "With Properties")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="199" priority="207">
-      <formula>AND(RIGHT(C8, 3) = " of", D9 = "With Properties")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="notContainsBlanks" dxfId="198" priority="208">
-      <formula>LEN(TRIM(D8))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="197" priority="197" operator="equal">
+    <cfRule type="beginsWith" dxfId="438" priority="190" operator="beginsWith" text="With Properties">
+      <formula>LEFT(D6,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="437" priority="191" operator="endsWith" text=" table of">
+      <formula>RIGHT(D6,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="436" priority="192" operator="endsWith" text=" of">
+      <formula>RIGHT(D6,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="435" priority="193">
+      <formula>AND((RIGHT(D5, 3) = " of"), D7 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="434" priority="194">
+      <formula>AND(RIGHT(C6, 3) = " of", D7 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="notContainsBlanks" dxfId="433" priority="195">
+      <formula>LEN(TRIM(D6))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="432" priority="184" operator="equal">
       <formula>"PercentagePrecision"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="185" operator="equal">
       <formula>"="</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="195" priority="196" operator="equal">
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="430" priority="183" operator="equal">
       <formula>"StringFormat"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="429" priority="173" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="428" priority="174" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="427" priority="175" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="426" priority="176" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="425" priority="177" operator="beginsWith" text="With Properties">
+      <formula>LEFT(D7,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="424" priority="178" operator="endsWith" text=" table of">
+      <formula>RIGHT(D7,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="423" priority="179" operator="endsWith" text=" of">
+      <formula>RIGHT(D7,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="422" priority="180">
+      <formula>AND((RIGHT(D6, 3) = " of"), D8 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="421" priority="181">
+      <formula>AND(RIGHT(C7, 3) = " of", D8 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="notContainsBlanks" dxfId="420" priority="182">
+      <formula>LEN(TRIM(D7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="419" priority="171" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="418" priority="172" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="417" priority="170" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="416" priority="160" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="415" priority="161" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="414" priority="162" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="413" priority="163" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="412" priority="164" operator="beginsWith" text="With Properties">
+      <formula>LEFT(E8,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="411" priority="165" operator="endsWith" text=" table of">
+      <formula>RIGHT(E8,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="410" priority="166" operator="endsWith" text=" of">
+      <formula>RIGHT(E8,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="409" priority="167">
+      <formula>AND((RIGHT(E7, 3) = " of"), E9 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="408" priority="168">
+      <formula>AND(RIGHT(D8, 3) = " of", E9 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="notContainsBlanks" dxfId="407" priority="169">
+      <formula>LEN(TRIM(E8))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="406" priority="158" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="405" priority="159" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="404" priority="157" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="403" priority="147" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="402" priority="148" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="401" priority="149" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="400" priority="150" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="399" priority="151" operator="beginsWith" text="With Properties">
+      <formula>LEFT(D7,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="398" priority="152" operator="endsWith" text=" table of">
+      <formula>RIGHT(D7,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="397" priority="153" operator="endsWith" text=" of">
+      <formula>RIGHT(D7,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="396" priority="154">
+      <formula>AND((RIGHT(D6, 3) = " of"), D8 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="395" priority="155">
+      <formula>AND(RIGHT(C7, 3) = " of", D8 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="notContainsBlanks" dxfId="394" priority="156">
+      <formula>LEN(TRIM(D7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="393" priority="145" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="392" priority="146" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="391" priority="144" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="390" priority="134" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="389" priority="135" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="388" priority="136" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="387" priority="137" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="386" priority="138" operator="beginsWith" text="With Properties">
+      <formula>LEFT(D5,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="385" priority="139" operator="endsWith" text=" table of">
+      <formula>RIGHT(D5,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="384" priority="140" operator="endsWith" text=" of">
+      <formula>RIGHT(D5,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="383" priority="141">
+      <formula>AND((RIGHT(D4, 3) = " of"), D6 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="382" priority="142">
+      <formula>AND(RIGHT(C5, 3) = " of", D6 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="notContainsBlanks" dxfId="381" priority="143">
+      <formula>LEN(TRIM(D5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="380" priority="132" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="379" priority="133" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="378" priority="131" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="194" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="121" operator="equal">
       <formula>"Assert"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="122" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="123" operator="equal">
       <formula>"Given a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="124" operator="equal">
       <formula>"Specification"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="190" priority="190" operator="beginsWith" text="With Properties">
+    <cfRule type="beginsWith" dxfId="373" priority="125" operator="beginsWith" text="With Properties">
       <formula>LEFT(D6,LEN("With Properties"))="With Properties"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="189" priority="191" operator="endsWith" text=" table of">
+    <cfRule type="endsWith" dxfId="372" priority="126" operator="endsWith" text=" table of">
       <formula>RIGHT(D6,LEN(" table of"))=" table of"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="188" priority="192" operator="endsWith" text=" of">
+    <cfRule type="endsWith" dxfId="371" priority="127" operator="endsWith" text=" of">
       <formula>RIGHT(D6,LEN(" of"))=" of"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="193">
+    <cfRule type="expression" dxfId="370" priority="128">
       <formula>AND((RIGHT(D5, 3) = " of"), D7 = "With Properties")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="194">
+    <cfRule type="expression" dxfId="369" priority="129">
       <formula>AND(RIGHT(C6, 3) = " of", D7 = "With Properties")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="notContainsBlanks" dxfId="185" priority="195">
+    <cfRule type="notContainsBlanks" dxfId="368" priority="130">
       <formula>LEN(TRIM(D6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="184" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="119" operator="equal">
       <formula>"PercentagePrecision"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="120" operator="equal">
       <formula>"="</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="182" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="118" operator="equal">
       <formula>"StringFormat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="181" priority="173" operator="equal">
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="364" priority="108" operator="equal">
       <formula>"Assert"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="109" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="110" operator="equal">
       <formula>"Given a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="111" operator="equal">
       <formula>"Specification"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="177" priority="177" operator="beginsWith" text="With Properties">
-      <formula>LEFT(D7,LEN("With Properties"))="With Properties"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="176" priority="178" operator="endsWith" text=" table of">
-      <formula>RIGHT(D7,LEN(" table of"))=" table of"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="175" priority="179" operator="endsWith" text=" of">
-      <formula>RIGHT(D7,LEN(" of"))=" of"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="174" priority="180">
-      <formula>AND((RIGHT(D6, 3) = " of"), D8 = "With Properties")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="173" priority="181">
-      <formula>AND(RIGHT(C7, 3) = " of", D8 = "With Properties")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="notContainsBlanks" dxfId="172" priority="182">
-      <formula>LEN(TRIM(D7))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="171" priority="171" operator="equal">
+    <cfRule type="beginsWith" dxfId="360" priority="112" operator="beginsWith" text="With Properties">
+      <formula>LEFT(E7,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="359" priority="113" operator="endsWith" text=" table of">
+      <formula>RIGHT(E7,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="358" priority="114" operator="endsWith" text=" of">
+      <formula>RIGHT(E7,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="357" priority="115">
+      <formula>AND((RIGHT(E6, 3) = " of"), E8 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="356" priority="116">
+      <formula>AND(RIGHT(D7, 3) = " of", E8 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="notContainsBlanks" dxfId="355" priority="117">
+      <formula>LEN(TRIM(E7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="354" priority="106" operator="equal">
       <formula>"PercentagePrecision"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="107" operator="equal">
       <formula>"="</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="169" priority="170" operator="equal">
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="352" priority="105" operator="equal">
       <formula>"StringFormat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="168" priority="160" operator="equal">
+  <conditionalFormatting sqref="E11:F11 D9:F10">
+    <cfRule type="cellIs" dxfId="351" priority="95" operator="equal">
       <formula>"Assert"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="96" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="97" operator="equal">
       <formula>"Given a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="98" operator="equal">
       <formula>"Specification"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="164" priority="164" operator="beginsWith" text="With Properties">
-      <formula>LEFT(E8,LEN("With Properties"))="With Properties"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="163" priority="165" operator="endsWith" text=" table of">
-      <formula>RIGHT(E8,LEN(" table of"))=" table of"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="162" priority="166" operator="endsWith" text=" of">
-      <formula>RIGHT(E8,LEN(" of"))=" of"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="161" priority="167">
-      <formula>AND((RIGHT(E7, 3) = " of"), E9 = "With Properties")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="160" priority="168">
-      <formula>AND(RIGHT(D8, 3) = " of", E9 = "With Properties")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="notContainsBlanks" dxfId="159" priority="169">
-      <formula>LEN(TRIM(E8))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="158" priority="158" operator="equal">
+    <cfRule type="beginsWith" dxfId="347" priority="99" operator="beginsWith" text="With Properties">
+      <formula>LEFT(D9,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="346" priority="100" operator="endsWith" text=" table of">
+      <formula>RIGHT(D9,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="345" priority="101" operator="endsWith" text=" of">
+      <formula>RIGHT(D9,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="344" priority="102">
+      <formula>AND((RIGHT(D8, 3) = " of"), D10 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="343" priority="103">
+      <formula>AND(RIGHT(C9, 3) = " of", D10 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:F11 D9:F10">
+    <cfRule type="notContainsBlanks" dxfId="342" priority="104">
+      <formula>LEN(TRIM(D9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:F11 D9:F10">
+    <cfRule type="cellIs" dxfId="341" priority="93" operator="equal">
       <formula>"PercentagePrecision"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="94" operator="equal">
       <formula>"="</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="156" priority="157" operator="equal">
+  <conditionalFormatting sqref="E11:F11 D9:F10">
+    <cfRule type="cellIs" dxfId="339" priority="92" operator="equal">
       <formula>"StringFormat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="155" priority="147" operator="equal">
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="338" priority="82" operator="equal">
       <formula>"Assert"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="83" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="84" operator="equal">
       <formula>"Given a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="85" operator="equal">
       <formula>"Specification"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="151" priority="151" operator="beginsWith" text="With Properties">
-      <formula>LEFT(D7,LEN("With Properties"))="With Properties"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="150" priority="152" operator="endsWith" text=" table of">
-      <formula>RIGHT(D7,LEN(" table of"))=" table of"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="149" priority="153" operator="endsWith" text=" of">
-      <formula>RIGHT(D7,LEN(" of"))=" of"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="148" priority="154">
-      <formula>AND((RIGHT(D6, 3) = " of"), D8 = "With Properties")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="147" priority="155">
-      <formula>AND(RIGHT(C7, 3) = " of", D8 = "With Properties")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="notContainsBlanks" dxfId="146" priority="156">
-      <formula>LEN(TRIM(D7))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="145" priority="145" operator="equal">
+    <cfRule type="beginsWith" dxfId="334" priority="86" operator="beginsWith" text="With Properties">
+      <formula>LEFT(D11,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="333" priority="87" operator="endsWith" text=" table of">
+      <formula>RIGHT(D11,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="332" priority="88" operator="endsWith" text=" of">
+      <formula>RIGHT(D11,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="331" priority="89">
+      <formula>AND((RIGHT(D10, 3) = " of"), D12 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="330" priority="90">
+      <formula>AND(RIGHT(C11, 3) = " of", D12 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="notContainsBlanks" dxfId="329" priority="91">
+      <formula>LEN(TRIM(D11))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="328" priority="80" operator="equal">
       <formula>"PercentagePrecision"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="81" operator="equal">
       <formula>"="</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="143" priority="144" operator="equal">
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="326" priority="79" operator="equal">
       <formula>"StringFormat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="142" priority="134" operator="equal">
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="325" priority="69" operator="equal">
       <formula>"Assert"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="70" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="71" operator="equal">
       <formula>"Given a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="72" operator="equal">
       <formula>"Specification"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="138" priority="138" operator="beginsWith" text="With Properties">
-      <formula>LEFT(D5,LEN("With Properties"))="With Properties"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="137" priority="139" operator="endsWith" text=" table of">
-      <formula>RIGHT(D5,LEN(" table of"))=" table of"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="136" priority="140" operator="endsWith" text=" of">
-      <formula>RIGHT(D5,LEN(" of"))=" of"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="135" priority="141">
-      <formula>AND((RIGHT(D4, 3) = " of"), D6 = "With Properties")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="142">
-      <formula>AND(RIGHT(C5, 3) = " of", D6 = "With Properties")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="notContainsBlanks" dxfId="133" priority="143">
-      <formula>LEN(TRIM(D5))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="132" priority="132" operator="equal">
+    <cfRule type="beginsWith" dxfId="321" priority="73" operator="beginsWith" text="With Properties">
+      <formula>LEFT(D9,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="320" priority="74" operator="endsWith" text=" table of">
+      <formula>RIGHT(D9,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="319" priority="75" operator="endsWith" text=" of">
+      <formula>RIGHT(D9,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="318" priority="76">
+      <formula>AND((RIGHT(D8, 3) = " of"), D10 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="317" priority="77">
+      <formula>AND(RIGHT(C9, 3) = " of", D10 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="notContainsBlanks" dxfId="316" priority="78">
+      <formula>LEN(TRIM(D9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="315" priority="67" operator="equal">
       <formula>"PercentagePrecision"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="68" operator="equal">
       <formula>"="</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="130" priority="131" operator="equal">
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="313" priority="66" operator="equal">
       <formula>"StringFormat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="129" priority="121" operator="equal">
+  <conditionalFormatting sqref="D10">
+    <cfRule type="cellIs" dxfId="312" priority="56" operator="equal">
       <formula>"Assert"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="57" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="58" operator="equal">
       <formula>"Given a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="59" operator="equal">
       <formula>"Specification"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="125" priority="125" operator="beginsWith" text="With Properties">
-      <formula>LEFT(D6,LEN("With Properties"))="With Properties"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="124" priority="126" operator="endsWith" text=" table of">
-      <formula>RIGHT(D6,LEN(" table of"))=" table of"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="123" priority="127" operator="endsWith" text=" of">
-      <formula>RIGHT(D6,LEN(" of"))=" of"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="122" priority="128">
-      <formula>AND((RIGHT(D5, 3) = " of"), D7 = "With Properties")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="121" priority="129">
-      <formula>AND(RIGHT(C6, 3) = " of", D7 = "With Properties")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="notContainsBlanks" dxfId="120" priority="130">
-      <formula>LEN(TRIM(D6))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="119" priority="119" operator="equal">
+    <cfRule type="beginsWith" dxfId="308" priority="60" operator="beginsWith" text="With Properties">
+      <formula>LEFT(D10,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="307" priority="61" operator="endsWith" text=" table of">
+      <formula>RIGHT(D10,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="306" priority="62" operator="endsWith" text=" of">
+      <formula>RIGHT(D10,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="305" priority="63">
+      <formula>AND((RIGHT(D9, 3) = " of"), D11 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="304" priority="64">
+      <formula>AND(RIGHT(C10, 3) = " of", D11 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="notContainsBlanks" dxfId="303" priority="65">
+      <formula>LEN(TRIM(D10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="cellIs" dxfId="302" priority="54" operator="equal">
       <formula>"PercentagePrecision"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="55" operator="equal">
       <formula>"="</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="117" priority="118" operator="equal">
+  <conditionalFormatting sqref="D10">
+    <cfRule type="cellIs" dxfId="300" priority="53" operator="equal">
       <formula>"StringFormat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="116" priority="108" operator="equal">
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="299" priority="43" operator="equal">
       <formula>"Assert"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="44" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="45" operator="equal">
       <formula>"Given a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="46" operator="equal">
       <formula>"Specification"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="112" priority="112" operator="beginsWith" text="With Properties">
-      <formula>LEFT(E7,LEN("With Properties"))="With Properties"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="111" priority="113" operator="endsWith" text=" table of">
-      <formula>RIGHT(E7,LEN(" table of"))=" table of"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="110" priority="114" operator="endsWith" text=" of">
-      <formula>RIGHT(E7,LEN(" of"))=" of"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="109" priority="115">
-      <formula>AND((RIGHT(E6, 3) = " of"), E8 = "With Properties")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="116">
-      <formula>AND(RIGHT(D7, 3) = " of", E8 = "With Properties")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="notContainsBlanks" dxfId="107" priority="117">
-      <formula>LEN(TRIM(E7))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="106" priority="106" operator="equal">
+    <cfRule type="beginsWith" dxfId="295" priority="47" operator="beginsWith" text="With Properties">
+      <formula>LEFT(E11,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="294" priority="48" operator="endsWith" text=" table of">
+      <formula>RIGHT(E11,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="293" priority="49" operator="endsWith" text=" of">
+      <formula>RIGHT(E11,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="292" priority="50">
+      <formula>AND((RIGHT(E10, 3) = " of"), E12 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="291" priority="51">
+      <formula>AND(RIGHT(D11, 3) = " of", E12 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="notContainsBlanks" dxfId="290" priority="52">
+      <formula>LEN(TRIM(E11))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="289" priority="41" operator="equal">
       <formula>"PercentagePrecision"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="42" operator="equal">
       <formula>"="</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="104" priority="105" operator="equal">
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="287" priority="40" operator="equal">
       <formula>"StringFormat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:F11 D9:F10">
-    <cfRule type="cellIs" dxfId="103" priority="95" operator="equal">
+  <conditionalFormatting sqref="D10">
+    <cfRule type="cellIs" dxfId="286" priority="30" operator="equal">
       <formula>"Assert"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="31" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="32" operator="equal">
       <formula>"Given a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="33" operator="equal">
       <formula>"Specification"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="99" priority="99" operator="beginsWith" text="With Properties">
+    <cfRule type="beginsWith" dxfId="282" priority="34" operator="beginsWith" text="With Properties">
+      <formula>LEFT(D10,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="281" priority="35" operator="endsWith" text=" table of">
+      <formula>RIGHT(D10,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="280" priority="36" operator="endsWith" text=" of">
+      <formula>RIGHT(D10,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="279" priority="37">
+      <formula>AND((RIGHT(D9, 3) = " of"), D11 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="278" priority="38">
+      <formula>AND(RIGHT(C10, 3) = " of", D11 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="notContainsBlanks" dxfId="277" priority="39">
+      <formula>LEN(TRIM(D10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="cellIs" dxfId="276" priority="28" operator="equal">
+      <formula>"PercentagePrecision"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="275" priority="29" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="cellIs" dxfId="274" priority="27" operator="equal">
+      <formula>"StringFormat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="273" priority="17" operator="equal">
+      <formula>"Assert"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="272" priority="18" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="271" priority="19" operator="equal">
+      <formula>"Given a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="270" priority="20" operator="equal">
+      <formula>"Specification"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="269" priority="21" operator="beginsWith" text="With Properties">
       <formula>LEFT(D9,LEN("With Properties"))="With Properties"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="98" priority="100" operator="endsWith" text=" table of">
+    <cfRule type="endsWith" dxfId="268" priority="22" operator="endsWith" text=" table of">
       <formula>RIGHT(D9,LEN(" table of"))=" table of"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="97" priority="101" operator="endsWith" text=" of">
+    <cfRule type="endsWith" dxfId="267" priority="23" operator="endsWith" text=" of">
       <formula>RIGHT(D9,LEN(" of"))=" of"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="102">
+    <cfRule type="expression" dxfId="266" priority="24">
       <formula>AND((RIGHT(D8, 3) = " of"), D10 = "With Properties")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="103">
+    <cfRule type="expression" dxfId="265" priority="25">
       <formula>AND(RIGHT(C9, 3) = " of", D10 = "With Properties")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:F11 D9:F10">
-    <cfRule type="notContainsBlanks" dxfId="94" priority="104">
+  <conditionalFormatting sqref="D9">
+    <cfRule type="notContainsBlanks" dxfId="264" priority="26">
       <formula>LEN(TRIM(D9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:F11 D9:F10">
-    <cfRule type="cellIs" dxfId="93" priority="93" operator="equal">
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="263" priority="15" operator="equal">
       <formula>"PercentagePrecision"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="16" operator="equal">
       <formula>"="</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:F11 D9:F10">
-    <cfRule type="cellIs" dxfId="91" priority="92" operator="equal">
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="261" priority="14" operator="equal">
       <formula>"StringFormat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="90" priority="82" operator="equal">
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="260" priority="4" operator="equal">
       <formula>"Assert"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="5" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="6" operator="equal">
       <formula>"Given a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="7" operator="equal">
       <formula>"Specification"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="86" priority="86" operator="beginsWith" text="With Properties">
-      <formula>LEFT(D11,LEN("With Properties"))="With Properties"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="85" priority="87" operator="endsWith" text=" table of">
-      <formula>RIGHT(D11,LEN(" table of"))=" table of"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="84" priority="88" operator="endsWith" text=" of">
-      <formula>RIGHT(D11,LEN(" of"))=" of"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="83" priority="89">
-      <formula>AND((RIGHT(D10, 3) = " of"), D12 = "With Properties")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="90">
-      <formula>AND(RIGHT(C11, 3) = " of", D12 = "With Properties")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="notContainsBlanks" dxfId="81" priority="91">
-      <formula>LEN(TRIM(D11))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="80" priority="80" operator="equal">
+    <cfRule type="beginsWith" dxfId="256" priority="8" operator="beginsWith" text="With Properties">
+      <formula>LEFT(E10,LEN("With Properties"))="With Properties"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="255" priority="9" operator="endsWith" text=" table of">
+      <formula>RIGHT(E10,LEN(" table of"))=" table of"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="254" priority="10" operator="endsWith" text=" of">
+      <formula>RIGHT(E10,LEN(" of"))=" of"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="253" priority="11">
+      <formula>AND((RIGHT(E9, 3) = " of"), E11 = "With Properties")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="252" priority="12">
+      <formula>AND(RIGHT(D10, 3) = " of", E11 = "With Properties")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="notContainsBlanks" dxfId="251" priority="13">
+      <formula>LEN(TRIM(E10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="250" priority="2" operator="equal">
       <formula>"PercentagePrecision"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="3" operator="equal">
       <formula>"="</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
-      <formula>"StringFormat"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="77" priority="69" operator="equal">
-      <formula>"Assert"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="70" operator="equal">
-      <formula>"When"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="71" operator="equal">
-      <formula>"Given a"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="72" operator="equal">
-      <formula>"Specification"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="73" priority="73" operator="beginsWith" text="With Properties">
-      <formula>LEFT(D9,LEN("With Properties"))="With Properties"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="72" priority="74" operator="endsWith" text=" table of">
-      <formula>RIGHT(D9,LEN(" table of"))=" table of"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="71" priority="75" operator="endsWith" text=" of">
-      <formula>RIGHT(D9,LEN(" of"))=" of"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="76">
-      <formula>AND((RIGHT(D8, 3) = " of"), D10 = "With Properties")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="77">
-      <formula>AND(RIGHT(C9, 3) = " of", D10 = "With Properties")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="notContainsBlanks" dxfId="68" priority="78">
-      <formula>LEN(TRIM(D9))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="67" priority="67" operator="equal">
-      <formula>"PercentagePrecision"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
-      <formula>"="</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="65" priority="66" operator="equal">
-      <formula>"StringFormat"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="64" priority="56" operator="equal">
-      <formula>"Assert"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="57" operator="equal">
-      <formula>"When"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="58" operator="equal">
-      <formula>"Given a"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
-      <formula>"Specification"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="60" priority="60" operator="beginsWith" text="With Properties">
-      <formula>LEFT(D10,LEN("With Properties"))="With Properties"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="59" priority="61" operator="endsWith" text=" table of">
-      <formula>RIGHT(D10,LEN(" table of"))=" table of"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="58" priority="62" operator="endsWith" text=" of">
-      <formula>RIGHT(D10,LEN(" of"))=" of"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="63">
-      <formula>AND((RIGHT(D9, 3) = " of"), D11 = "With Properties")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="64">
-      <formula>AND(RIGHT(C10, 3) = " of", D11 = "With Properties")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="notContainsBlanks" dxfId="55" priority="65">
-      <formula>LEN(TRIM(D10))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
-      <formula>"PercentagePrecision"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
-      <formula>"="</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
-      <formula>"StringFormat"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="51" priority="43" operator="equal">
-      <formula>"Assert"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="44" operator="equal">
-      <formula>"When"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="45" operator="equal">
-      <formula>"Given a"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="46" operator="equal">
-      <formula>"Specification"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="47" priority="47" operator="beginsWith" text="With Properties">
-      <formula>LEFT(E11,LEN("With Properties"))="With Properties"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="46" priority="48" operator="endsWith" text=" table of">
-      <formula>RIGHT(E11,LEN(" table of"))=" table of"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="45" priority="49" operator="endsWith" text=" of">
-      <formula>RIGHT(E11,LEN(" of"))=" of"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="50">
-      <formula>AND((RIGHT(E10, 3) = " of"), E12 = "With Properties")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="51">
-      <formula>AND(RIGHT(D11, 3) = " of", E12 = "With Properties")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="notContainsBlanks" dxfId="42" priority="52">
-      <formula>LEN(TRIM(E11))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
-      <formula>"PercentagePrecision"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
-      <formula>"="</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
-      <formula>"StringFormat"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="38" priority="30" operator="equal">
-      <formula>"Assert"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="31" operator="equal">
-      <formula>"When"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="32" operator="equal">
-      <formula>"Given a"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
-      <formula>"Specification"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="34" priority="34" operator="beginsWith" text="With Properties">
-      <formula>LEFT(D10,LEN("With Properties"))="With Properties"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="33" priority="35" operator="endsWith" text=" table of">
-      <formula>RIGHT(D10,LEN(" table of"))=" table of"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="32" priority="36" operator="endsWith" text=" of">
-      <formula>RIGHT(D10,LEN(" of"))=" of"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="37">
-      <formula>AND((RIGHT(D9, 3) = " of"), D11 = "With Properties")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="38">
-      <formula>AND(RIGHT(C10, 3) = " of", D11 = "With Properties")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="notContainsBlanks" dxfId="29" priority="39">
-      <formula>LEN(TRIM(D10))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
-      <formula>"PercentagePrecision"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
-      <formula>"="</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
-      <formula>"StringFormat"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
-      <formula>"Assert"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
-      <formula>"When"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
-      <formula>"Given a"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
-      <formula>"Specification"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="21" priority="21" operator="beginsWith" text="With Properties">
-      <formula>LEFT(D9,LEN("With Properties"))="With Properties"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="20" priority="22" operator="endsWith" text=" table of">
-      <formula>RIGHT(D9,LEN(" table of"))=" table of"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="19" priority="23" operator="endsWith" text=" of">
-      <formula>RIGHT(D9,LEN(" of"))=" of"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="24">
-      <formula>AND((RIGHT(D8, 3) = " of"), D10 = "With Properties")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="25">
-      <formula>AND(RIGHT(C9, 3) = " of", D10 = "With Properties")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="notContainsBlanks" dxfId="16" priority="26">
-      <formula>LEN(TRIM(D9))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
-      <formula>"PercentagePrecision"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
-      <formula>"="</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>"StringFormat"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
-      <formula>"Assert"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
-      <formula>"When"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
-      <formula>"Given a"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
-      <formula>"Specification"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="8" priority="8" operator="beginsWith" text="With Properties">
-      <formula>LEFT(E10,LEN("With Properties"))="With Properties"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="7" priority="9" operator="endsWith" text=" table of">
-      <formula>RIGHT(E10,LEN(" table of"))=" table of"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="6" priority="10" operator="endsWith" text=" of">
-      <formula>RIGHT(E10,LEN(" of"))=" of"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="11">
-      <formula>AND((RIGHT(E9, 3) = " of"), E11 = "With Properties")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="12">
-      <formula>AND(RIGHT(D10, 3) = " of", E11 = "With Properties")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="13">
-      <formula>LEN(TRIM(E10))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"PercentagePrecision"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"="</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="1" operator="equal">
       <formula>"StringFormat"</formula>
     </cfRule>
   </conditionalFormatting>
